--- a/data/processed/Attendance Report - 11.28.2021.xlsx
+++ b/data/processed/Attendance Report - 11.28.2021.xlsx
@@ -1,86 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="#,##0.00_- [$$-45C]"/>
-    <numFmt numFmtId="165" formatCode="&quot;£&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="[$€-2] #,##0.00"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="#,##0;(#,##0)"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00;(#,##0.00)"/>
-  </numFmts>
-  <fonts count="6">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <i val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11"/>
-      <u val="single"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
-      <patternFill/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD99795"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ffc6efce"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ffc6cfef"/>
-        <bgColor indexed="64"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
@@ -92,111 +46,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="1" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="fill"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -557,144 +425,195 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E255"/>
+  <dimension ref="A1:F254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="37.8" customWidth="1" min="1" max="1"/>
-    <col width="31.05" customWidth="1" min="2" max="2"/>
-    <col width="9.450000000000001" customWidth="1" min="3" max="3"/>
-    <col width="33.75" customWidth="1" min="4" max="4"/>
-    <col width="14.85" customWidth="1" min="5" max="5"/>
-    <col width="22.95" customWidth="1" min="6" max="6"/>
-    <col width="33.75" customWidth="1" min="7" max="7"/>
-    <col width="13.5" customWidth="1" min="8" max="8"/>
-    <col width="21.6" customWidth="1" min="9" max="9"/>
-    <col width="13.5" customWidth="1" min="10" max="10"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="51" t="inlineStr">
-        <is>
-          <t>Attendance Report for Covenant Baptist Church Iligan</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>First Scan</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>First Temp.</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr"/>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Present/Absent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>First Scan</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>First Temp.</t>
-        </is>
-      </c>
-      <c r="E2" s="68" t="inlineStr">
-        <is>
-          <t>Present/Absent</t>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Abeggail Cansancio</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Abeggail Cansancio</t>
-        </is>
-      </c>
+          <t>Abrielle Murillo</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>28 November 2021 08:46:02</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Abrielle Murillo</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>28 November 2021 08:46:02</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>Allianna Alvarez</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Allianna Alvarez</t>
-        </is>
-      </c>
+          <t>Althea Louise Almeria</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>28 November 2021 08:33:39</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Althea Louise C. Almeria</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>28 November 2021 08:33:39</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>Alvin Alvarez</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Alvin Alvarez</t>
-        </is>
-      </c>
+          <t>Analyn Gregorio</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>28 November 2021 09:20:11</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Analyn Gregorio</t>
+          <t>Andre Miclat</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>28 November 2021 09:20:11</t>
+          <t>28 November 2021 09:11:01</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -702,331 +621,483 @@
           <t>36.5°C</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Andre A. Miclat</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:11:01</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>Angelie Datu</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Angelie Datu</t>
-        </is>
-      </c>
+          <t>Angelie Mahusay</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Angelie Mahusay</t>
-        </is>
-      </c>
+          <t>Angelita Bato-Bato</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Angelita Bato-Bato</t>
-        </is>
-      </c>
+          <t>Angelo Cepeda</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>28 November 2021 08:58:32</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Angelo Cepeda</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>28 November 2021 08:58:32</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>Annavie Geraldizo</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Annavie Geraldizo</t>
-        </is>
-      </c>
+          <t>Anthony Geraldizo</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Anthony Geraldizo</t>
-        </is>
-      </c>
+          <t>Arman Cabantug</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>28 November 2021 09:09:12</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>36.4°C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Arman Cabantug</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:09:12</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>36.4°C</t>
-        </is>
-      </c>
+          <t>Beth Geraldizo</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Beth Geraldizo</t>
-        </is>
-      </c>
+          <t>Bethel Joy Noble</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>28 November 2021 09:28:06</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>36.2°C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Bethel Joy Noble</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:28:06</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>36.2°C</t>
-        </is>
-      </c>
+          <t>Blaire Faye Andoy</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Blaire Faye Andoy</t>
-        </is>
-      </c>
+          <t>Boboy Gregorio</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>28 November 2021 09:57:06</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>36.0°C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Boboy Gregorio</t>
+          <t>Brent Johnspike Cadungog</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>28 November 2021 09:57:06</t>
+          <t>28 November 2021 09:17:18</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>36.0°C</t>
-        </is>
-      </c>
+          <t>36.6°C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Brent Johnspike Y. Cadungog</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:17:18</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>36.6°C</t>
-        </is>
-      </c>
+          <t>Brian Quinal</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Brian C. Quinal</t>
-        </is>
-      </c>
+          <t>Bryle Joshua Canono</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Bryle Joshua A. Canono</t>
-        </is>
-      </c>
+          <t>Bryle Joshua Canono</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Bryle Joshua D. Canono</t>
-        </is>
-      </c>
+          <t>Caleb James Noble</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Caleb James Noble</t>
-        </is>
-      </c>
+          <t>Calvin Klein Galbinez</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Calvin Klein G. Galbinez</t>
-        </is>
-      </c>
+          <t>Cecille Omandam</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>28 November 2021 08:28:11</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Cecille Omandam</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>28 November 2021 08:28:11</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>Cherry Lyn Malabago</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Cherry Lyn Malabago</t>
-        </is>
-      </c>
+          <t>Cherry Mae Cadungog</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>28 November 2021 09:13:17</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>36.4°C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Cherry Mae A. Cadungog</t>
+          <t>Chillet Noble</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>28 November 2021 09:13:17</t>
+          <t>28 November 2021 08:45:25</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1034,101 +1105,143 @@
           <t>36.4°C</t>
         </is>
       </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Chillet Noble</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>28 November 2021 08:45:25</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>36.4°C</t>
-        </is>
-      </c>
+          <t>Clar Maratas</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Clar Maratas</t>
-        </is>
-      </c>
+          <t>Clark Kent Bongcawil</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Clark Kent Bongcawil</t>
-        </is>
-      </c>
+          <t>Claudio Mutia</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>28 November 2021 09:00:06</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Claudio Mutia</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:00:06</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>Crisgar Bongcawil</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Crisgar Bongcawil</t>
-        </is>
-      </c>
+          <t>Dailyn Gregorio</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>28 November 2021 09:56:57</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>36.4°C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Dailyn Gregorio</t>
+          <t>Daisy Macapil</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>28 November 2021 09:56:57</t>
+          <t>28 November 2021 08:42:05</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1136,787 +1249,1135 @@
           <t>36.4°C</t>
         </is>
       </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Daisy Macapil</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>28 November 2021 08:42:05</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>36.4°C</t>
-        </is>
-      </c>
+          <t>Dana Macapil</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Dana Macapil</t>
-        </is>
-      </c>
+          <t>Danica Marie Dangcalan</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>28 November 2021 09:11:52</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>36.4°C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Danica Marie B. Dangcalan</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:11:52</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>36.4°C</t>
-        </is>
-      </c>
+          <t>Daniela Grace Marzo</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Daniela Grace Marzo</t>
-        </is>
-      </c>
+          <t>Danielle Gravino</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>28 November 2021 09:03:53</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>36.4°C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Danielle Gravino</t>
+          <t>Danissa Nina Dangcalan</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>28 November 2021 09:03:53</t>
+          <t>28 November 2021 09:44:03</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>36.4°C</t>
-        </is>
-      </c>
+          <t>36.6°C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Danissa Nina B. Dangcalan</t>
+          <t>Danriel Dancalan</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>28 November 2021 09:44:03</t>
+          <t>28 November 2021 09:19:38</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>36.6°C</t>
-        </is>
-      </c>
+          <t>36.4°C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Danriel B. Dancalan</t>
+          <t>Darlene Cabantug</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>28 November 2021 09:19:38</t>
+          <t>28 November 2021 09:04:37</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>36.4°C</t>
-        </is>
-      </c>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Darlene Cabantug</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:04:37</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>David Gregorio</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>David Gregorio</t>
-        </is>
-      </c>
+          <t>Del Sherry Bernales</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>28 November 2021 09:19:31</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Del Sherry C. Bernales</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:19:31</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>Dennis Distrito</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Dennis Distrito</t>
-        </is>
-      </c>
+          <t>Dianna Claire Barranco</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Dianna Claire Barranco</t>
-        </is>
-      </c>
+          <t>Dodong Cadungo</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Dodong Cadungo</t>
-        </is>
-      </c>
+          <t>Dodong Distrito</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Dodong Distrito</t>
-        </is>
-      </c>
+          <t>Earl Jann Barrete</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>28 November 2021 08:40:32</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>36.4°C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Earl Jann F. Barrete</t>
+          <t>Earl Nico Noble</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>28 November 2021 08:40:32</t>
+          <t>28 November 2021 09:13:35</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>36.4°C</t>
-        </is>
-      </c>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Earl Nico Noble</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:13:35</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>Elizabeth Clet</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Elizabeth O. Clet</t>
-        </is>
-      </c>
+          <t>Ellie Macapil</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Ellie Macapil</t>
-        </is>
-      </c>
+          <t>Elmer Jr. Bato-Bato</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Elmer Jr. Bato-Bato</t>
-        </is>
-      </c>
+          <t>Elnoriel Bato-Bato</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Elnoriel Bato-Bato</t>
-        </is>
-      </c>
+          <t>Eric Malabago</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Eric Malabago</t>
-        </is>
-      </c>
+          <t>Ernilie Barrete</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>28 November 2021 08:26:13</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Ernilie Barrete</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>28 November 2021 08:26:13</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>Erwin Angeles</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Present</t>
-        </is>
-      </c>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Erwin C. Angeles</t>
-        </is>
-      </c>
+          <t>Eugene Carballo</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Eugene Carballo</t>
-        </is>
-      </c>
+          <t>Evangeline Cadungo</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Evangeline Cadungo</t>
-        </is>
-      </c>
+          <t>Ezekiel Macapil</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Ezekiel Macapil</t>
-        </is>
-      </c>
+          <t>Ferdinand Galbinez</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Ferdinand Galbinez</t>
-        </is>
-      </c>
+          <t>Fritz Guian Angeles</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Fritz Guian Angeles</t>
-        </is>
-      </c>
+          <t>Froilan Jan Macapil</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Froilan Jan Macapil</t>
-        </is>
-      </c>
+          <t>Froilan Max Macapil</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Froilan Max Macapil</t>
-        </is>
-      </c>
+          <t>Gaia Canlas</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Gaia Canlas</t>
-        </is>
-      </c>
+          <t>Galicia Marlina</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>28 November 2021 09:59:35</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>36.4°C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Galicia Marlina</t>
+          <t>Gelly Distrito</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>28 November 2021 09:59:35</t>
+          <t>28 November 2021 09:02:28</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>36.4°C</t>
-        </is>
-      </c>
+          <t>36.3°C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Gelly Distrito</t>
+          <t>Geraldine Alvarez</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>28 November 2021 09:02:28</t>
+          <t>28 November 2021 09:16:47</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>36.3°C</t>
-        </is>
-      </c>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Geraldine Alvarez</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:16:47</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>Gretchen Cansancio</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Gretchen Cansancio</t>
-        </is>
-      </c>
+          <t>Hannah Faye Mutia</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>28 November 2021 09:37:37</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>36.4°C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Hannah Faye Mutia</t>
+          <t>Heather Gyle Yap</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>28 November 2021 09:37:37</t>
+          <t>28 November 2021 09:10:51</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>36.4°C</t>
-        </is>
-      </c>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Heather Gyle A. Yap</t>
+          <t>Helen Gregorio</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>28 November 2021 09:10:51</t>
+          <t>28 November 2021 09:32:47</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>36.3°C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Helen Gregorio</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:32:47</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>36.3°C</t>
-        </is>
-      </c>
+          <t>Helen Mahusay</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Helen Mahusay</t>
-        </is>
-      </c>
+          <t>Helen Yap</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>28 November 2021 08:46:52</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>36.3°C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Helen Yap</t>
+          <t>Henry Almeria</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>28 November 2021 08:46:52</t>
+          <t>28 November 2021 08:54:59</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>36.3°C</t>
-        </is>
-      </c>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Henry Almeria</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>28 November 2021 08:54:59</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>Hilda Villacora</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Hilda Villacora</t>
-        </is>
-      </c>
+          <t>Honey Grace Sumaylo</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Honey Grace Sumaylo</t>
-        </is>
-      </c>
+          <t>Honey Lou Maratas</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Honey Lou Maratas</t>
-        </is>
-      </c>
+          <t>Hyness Barrete</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>28 November 2021 08:26:46</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Hyness Barrete</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>28 November 2021 08:26:46</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>Ilde Rosales</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Ilde Rosales</t>
-        </is>
-      </c>
+          <t>Ivan Joy Cadungo</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Ivan Joy Cadungo</t>
-        </is>
-      </c>
+          <t>Jablin Bernales</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Jablin C. Bernales</t>
-        </is>
-      </c>
+          <t>Jacinth Loise Noble</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>28 November 2021 09:00:57</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Jacinth Loise Noble</t>
+          <t>Jacqueline Tabil</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>28 November 2021 09:00:57</t>
+          <t>28 November 2021 09:22:11</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1924,21 +2385,27 @@
           <t>36.5°C</t>
         </is>
       </c>
+      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Jacqueline Tabil</t>
+          <t>Janine Faye Murillo</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>28 November 2021 09:22:11</t>
+          <t>28 November 2021 09:28:57</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1946,607 +2413,883 @@
           <t>36.5°C</t>
         </is>
       </c>
+      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Janine Faye Murillo</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:28:57</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>Jannet Omandam</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Jannet Omandam</t>
-        </is>
-      </c>
+          <t>Jasher Lyne Ramayan</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Jasher Lyne Ramayan</t>
-        </is>
-      </c>
+          <t>Jay Sumaylo</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Jay Sumaylo</t>
-        </is>
-      </c>
+          <t>Jayjomar Geraldizo</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Jayjomar Geraldizo</t>
-        </is>
-      </c>
+          <t>Jayme Magnetico</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Jayme Magnetico</t>
-        </is>
-      </c>
+          <t>Jazel Dago-an</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Jazel N. Dago-an</t>
-        </is>
-      </c>
+          <t>Jazzmyne Rona Agustin</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>28 November 2021 09:05:58</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>36.6°C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Jazzmyne Rona Agustin</t>
+          <t>Jean Cabigon</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>28 November 2021 09:05:58</t>
+          <t>28 November 2021 08:53:46</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>36.6°C</t>
-        </is>
-      </c>
+          <t>36.3°C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Jean Cabigon</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>28 November 2021 08:53:46</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>36.3°C</t>
-        </is>
-      </c>
+          <t>Jeanalyn Marzo</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Jeanalyn Marzo</t>
-        </is>
-      </c>
+          <t>Jeanese Canlas</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Jeanese Canlas</t>
-        </is>
-      </c>
+          <t>Jeanmia Mingoc</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>28 November 2021 09:24:27</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Jeanmia Mingoc</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:24:27</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>Jeffrey Laureno</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Jeffrey Laureno</t>
-        </is>
-      </c>
+          <t>Jehanne Lyne Ramayan</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Jehanne Lyne Ramayan</t>
-        </is>
-      </c>
+          <t>Jehiel Kenaz Mutia</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>28 November 2021 09:05:13</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Jehiel Kenaz Mutia</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:05:13</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>Jelaiza Carballo</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Jelaiza Carballo</t>
-        </is>
-      </c>
+          <t>Jenny Geraldizo</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Jenny Geraldizo</t>
-        </is>
-      </c>
+          <t>Jeramel Barrete</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>28 November 2021 08:47:56</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>36.3°C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Jeramel Barrete</t>
+          <t>Jerry Canono</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>28 November 2021 08:47:56</t>
+          <t>28 November 2021 09:20:20</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>36.3°C</t>
-        </is>
-      </c>
+          <t>36.0°C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Jerry Canono</t>
+          <t>Jethro Leo Agustin</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>28 November 2021 09:20:20</t>
+          <t>28 November 2021 09:04:56</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>36.0°C</t>
-        </is>
-      </c>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Jethro Leo Agustin</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:04:56</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>Jethro Marzo</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Jethro Marzo</t>
-        </is>
-      </c>
+          <t>Jiar Clarabal</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Jiar Clarabal</t>
-        </is>
-      </c>
+          <t>Jimboy Mahusay</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Jimboy Mahusay</t>
-        </is>
-      </c>
+          <t>Jireh Kriz Mutia</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Jireh Kriz Mutia</t>
-        </is>
-      </c>
+          <t>Jirey Kirk Mutia</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Jirey Kirk Mutia</t>
-        </is>
-      </c>
+          <t>Joash Bancong</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Joash Bancong</t>
-        </is>
-      </c>
+          <t>Jobel Clarabal</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Jobel Clarabal</t>
-        </is>
-      </c>
+          <t>Jodelyn Mingoc</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Jodelyn Mingoc</t>
-        </is>
-      </c>
+          <t>Joel Jr. Clarabl</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>28 November 2021 09:27:14</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>36.4°C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Joel Jr. Clarabl</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:27:14</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>36.4°C</t>
-        </is>
-      </c>
+          <t>John Villacora</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>John Villacora</t>
-        </is>
-      </c>
+          <t>Johnver Cadungog</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>28 November 2021 08:59:39</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Johnver Cadungog</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>28 November 2021 08:59:39</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>Jon Heaven Gabriel Rosales</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Jon Heaven Gabriel Rosales</t>
-        </is>
-      </c>
+          <t>Jonalyn Clarabal</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Jonalyn Clarabal</t>
-        </is>
-      </c>
+          <t>Jonas Carballo</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>28 November 2021 09:41:16</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Jonas Carballo</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:41:16</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>Jonas Jr. Carbballo</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Present</t>
-        </is>
-      </c>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Jonas Jr. Carbballo</t>
-        </is>
-      </c>
+          <t>Jonathan III Malabago</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Jonathan III Malabago</t>
-        </is>
-      </c>
+          <t>Jonel Clarabal</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>28 November 2021 09:27:24</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Jonel Clarabal</t>
+          <t>Jonest Canlas</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>28 November 2021 09:27:24</t>
+          <t>28 November 2021 09:41:27</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>36.3°C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Jonest Canlas</t>
+          <t>Josefina Canlas</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>28 November 2021 09:41:27</t>
+          <t>28 November 2021 09:24:46</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>36.3°C</t>
-        </is>
-      </c>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Josefina Canlas</t>
+          <t>Joselito Miclat</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>28 November 2021 09:24:46</t>
+          <t>28 November 2021 09:10:02</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2554,21 +3297,27 @@
           <t>36.5°C</t>
         </is>
       </c>
+      <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Joselito Miclat</t>
+          <t>Josephine Bernales</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>28 November 2021 09:10:02</t>
+          <t>28 November 2021 09:19:21</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2576,235 +3325,319 @@
           <t>36.5°C</t>
         </is>
       </c>
+      <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Josephine C. Bernales</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:19:21</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>Josephine Malabago</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Josephine Malabago</t>
-        </is>
-      </c>
+          <t>Joshiah Derek Malabago</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>28 November 2021 09:17:51</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>36.6°C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Joshiah Derek Malabago</t>
+          <t>Joshua Timothy O.Clet</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>28 November 2021 09:17:51</t>
+          <t>28 November 2021 09:33:52</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>36.6°C</t>
-        </is>
-      </c>
+          <t>35.6°C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Joshua Timothy O.Clet</t>
+          <t>Joshua Antonio</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>28 November 2021 09:33:52</t>
+          <t>28 November 2021 09:16:32</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>35.6°C</t>
-        </is>
-      </c>
+          <t>36.4°C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Joshua Y. Antonio</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:16:32</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>36.4°C</t>
-        </is>
-      </c>
+          <t>Joven Ramayan</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Joven Ramayan</t>
-        </is>
-      </c>
+          <t>Judith Magnetico</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Judith Magnetico</t>
-        </is>
-      </c>
+          <t>Juliet Distrito</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Juliet Distrito</t>
-        </is>
-      </c>
+          <t>Julius Bato-Bato</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Julius Bato-Bato</t>
-        </is>
-      </c>
+          <t>Julius Noble</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>28 November 2021 08:44:57</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>36.4°C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Julius Noble</t>
+          <t>June Melvyn Lua</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>28 November 2021 08:44:57</t>
+          <t>28 November 2021 08:58:40</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>36.4°C</t>
-        </is>
-      </c>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>June Melvyn Lua</t>
+          <t>June Villacora</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>28 November 2021 08:58:40</t>
+          <t>28 November 2021 09:53:28</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>36.4°C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>June Villacora</t>
+          <t>JV Murillo</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>28 November 2021 09:53:28</t>
+          <t>28 November 2021 09:29:03</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>36.4°C</t>
-        </is>
-      </c>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>JV Murillo</t>
+          <t>Kaelan Cadungog</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>28 November 2021 09:29:03</t>
+          <t>28 November 2021 09:13:03</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -2812,933 +3645,1331 @@
           <t>36.5°C</t>
         </is>
       </c>
+      <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Kaelan Cadungog</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:13:03</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>Kate Loise Galbinez</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Kate Loise G. Galbinez</t>
-        </is>
-      </c>
+          <t>Keethe Justine Quinal</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>28 November 2021 09:18:58</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Keethe Justine Quinal</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:18:58</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>Kei Jullesse Quinal</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Kei Jullesse Quinal</t>
-        </is>
-      </c>
+          <t>Kei July Enerio</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Kei July Enerio</t>
-        </is>
-      </c>
+          <t>Kerby Bryan Miclat</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>28 November 2021 09:09:32</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>36.4°C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Kerby Bryan Miclat</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:09:32</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>36.4°C</t>
-        </is>
-      </c>
+          <t>Kevin Rosales</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Kevin Rosales</t>
-        </is>
-      </c>
+          <t>Keziah Malabago</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>28 November 2021 09:18:01</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>36.4°C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Keziah Malabago</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:18:01</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>36.4°C</t>
-        </is>
-      </c>
+          <t>Kristelle Cansancio</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Kristelle Cansancio</t>
-        </is>
-      </c>
+          <t>Leah Almeria</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>28 November 2021 08:54:50</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Leah C. Almeria</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>28 November 2021 08:54:50</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>Lemuel Villan</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Lemuel Villan</t>
-        </is>
-      </c>
+          <t>Leonora Agustin</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>28 November 2021 09:05:25</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Leonora Agustin</t>
+          <t>Leonora Bato-Bato</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>28 November 2021 09:05:25</t>
+          <t>28 November 2021 09:47:42</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>36.6°C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Leonora Bato-Bato</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:47:42</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>36.6°C</t>
-        </is>
-      </c>
+          <t>Lexis Macapil</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Lexis Macapil</t>
-        </is>
-      </c>
+          <t>Lilac Eunie Gabriel</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Lilac Eunie Gabriel</t>
-        </is>
-      </c>
+          <t>Lilibeth Galbinez</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Lilibeth Galbinez</t>
-        </is>
-      </c>
+          <t>Loila Barranco</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Loila Barranco</t>
-        </is>
-      </c>
+          <t>Louis Nelle Barranco</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Louis Nelle Barranco</t>
-        </is>
-      </c>
+          <t>Luzminda Cabigon</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>28 November 2021 08:53:54</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>36.4°C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Luzminda Cabigon</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>28 November 2021 08:53:54</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>36.4°C</t>
-        </is>
-      </c>
+          <t>Lyne Ramayan</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Lyne Ramayan</t>
-        </is>
-      </c>
+          <t>Lyrica Odessa Villan</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Lyrica Odessa Villan</t>
-        </is>
-      </c>
+          <t>Mae Distrito</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>28 November 2021 08:40:17</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>36.4°C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Mae Distrito</t>
+          <t>Mae Rosales</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>28 November 2021 08:40:17</t>
+          <t>28 November 2021 08:54:32</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>36.4°C</t>
-        </is>
-      </c>
+          <t>36.3°C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Mae Rosales</t>
+          <t>Maria Alyssa Tonio</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>28 November 2021 08:54:32</t>
+          <t>28 November 2021 09:27:45</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>36.3°C</t>
-        </is>
-      </c>
+          <t>36.2°C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Maria Alyssa Tonio</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:27:45</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>36.2°C</t>
-        </is>
-      </c>
+          <t>Maria Celia Datu</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Maria Celia Datu</t>
-        </is>
-      </c>
+          <t>Maria Joshuanne Durienne Lua</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>28 November 2021 09:31:57</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Maria Joshuanne Durienne Lua</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:31:57</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>Maria Lowella Canlas</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Maria Lowella Canlas</t>
-        </is>
-      </c>
+          <t>Marian Villan</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>28 November 2021 09:09:03</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>36.3°C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Marian Villan</t>
+          <t>Maribel Canono</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>28 November 2021 09:09:03</t>
+          <t>28 November 2021 09:18:09</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>36.3°C</t>
-        </is>
-      </c>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Maribel D. Canono</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:18:09</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>Marie Anne Macapil</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Marie Anne Macapil</t>
-        </is>
-      </c>
+          <t>Mariella Alvarez</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Mariella Alvarez</t>
-        </is>
-      </c>
+          <t>Marilou Maratas</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>28 November 2021 10:07:32</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>36.6°C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Marilou Maratas</t>
+          <t>Marissa Dangcalan</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>28 November 2021 10:07:32</t>
+          <t>28 November 2021 09:08:19</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>36.6°C</t>
-        </is>
-      </c>
+          <t>36.4°C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Marissa B. Dangcalan</t>
+          <t>Marites Carballo</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>28 November 2021 09:08:19</t>
+          <t>28 November 2021 10:03:28</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>36.4°C</t>
-        </is>
-      </c>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Marites Carballo</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>28 November 2021 10:03:28</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>Marjorie Carballo</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Marjorie Carballo</t>
-        </is>
-      </c>
+          <t>Mark John Cabantug</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>28 November 2021 09:04:24</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>35.4°C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Mark John Cabantug</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:04:24</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>35.4°C</t>
-        </is>
-      </c>
+          <t>Marvie Geraldizo</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr"/>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Marvie Geraldizo</t>
-        </is>
-      </c>
+          <t>Mary Ann Cansancio</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Mary Ann Cansancio</t>
-        </is>
-      </c>
+          <t>Mary Ann Lua</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>28 November 2021 09:29:14</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>36.1°C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Mary Ann Lua</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:29:14</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>36.1°C</t>
-        </is>
-      </c>
+          <t>Matt Geraldizo</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr"/>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Matt Geraldizo</t>
-        </is>
-      </c>
+          <t>Mayen Carillo</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr"/>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Mayen Carillo</t>
-        </is>
-      </c>
+          <t>Mayeth Bandojo</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr"/>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Mayeth Bandojo</t>
-        </is>
-      </c>
+          <t>Melfred Geraldizo</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr"/>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Melfred Geraldizo</t>
-        </is>
-      </c>
+          <t>Melvin Lua</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>28 November 2021 09:20:35</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>36.4°C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Melvin Lua</t>
+          <t>Methyl Ann Lua</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>28 November 2021 09:20:35</t>
+          <t>28 November 2021 09:21:41</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>36.4°C</t>
-        </is>
-      </c>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Methyl Ann Lua</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:21:41</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>Mharvic Maratas</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Mharvic Maratas</t>
-        </is>
-      </c>
+          <t>Michelle Bongcawil</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Michelle Bongcawil</t>
-        </is>
-      </c>
+          <t>Michelle Carballo</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Michelle Carballo</t>
-        </is>
-      </c>
+          <t>Mon Valeriano Murillo</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>28 November 2021 08:36:23</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>36.4°C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Mon Valeriano Murillo</t>
+          <t>Mona Murillo</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>28 November 2021 08:36:23</t>
+          <t>28 November 2021 08:53:10</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>36.4°C</t>
-        </is>
-      </c>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Mona Murillo</t>
+          <t>Nancy Rosales</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>28 November 2021 08:53:10</t>
+          <t>28 November 2021 09:57:23</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>36.6°C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Nancy Rosales</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:57:23</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>36.6°C</t>
-        </is>
-      </c>
+          <t>Nelson Baranco</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Nelson Baranco</t>
-        </is>
-      </c>
+          <t>Nico Barranco</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Nico Barranco</t>
-        </is>
-      </c>
+          <t>Nicolai Malabago</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Nicolai Malabago</t>
-        </is>
-      </c>
+          <t>Nissi Praise Marzo</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Nissi Praise Marzo</t>
-        </is>
-      </c>
+          <t>Onil Villan</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Onil Villan</t>
-        </is>
-      </c>
+          <t>Pearl Betamor</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>28 November 2021 09:07:16</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Absent</t>
-        </is>
-      </c>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Pearl Betamor</t>
+          <t>Perpetua Quinal</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>28 November 2021 09:07:16</t>
+          <t>28 November 2021 09:18:48</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -3746,213 +4977,295 @@
           <t>36.5°C</t>
         </is>
       </c>
+      <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Perpetua Quinal</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:18:48</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>Princess Geraldizo</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Princess Geraldizo</t>
-        </is>
-      </c>
+          <t>Rachel Tonio</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>28 November 2021 09:27:59</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Rachel Tonio</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:27:59</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>Racquel Cansancio</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Racquel Cansancio</t>
-        </is>
-      </c>
+          <t>Raul Quinal</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>28 November 2021 09:22:36</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Raul Quinal</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:22:36</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>Raupert Martin Quinal</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr"/>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Raupert Martin Quinal</t>
-        </is>
-      </c>
+          <t>Renato Gerodias</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>28 November 2021 09:21:27</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>36.4°C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Renato Gerodias</t>
+          <t>Reuben Jan Tonio</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>28 November 2021 09:21:27</t>
+          <t>28 November 2021 09:28:45</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>36.4°C</t>
-        </is>
-      </c>
+          <t>36.3°C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Reuben Jan Tonio</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:28:45</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>36.3°C</t>
-        </is>
-      </c>
+          <t>Rex Daog-an</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr"/>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Rex N. Daog-an</t>
-        </is>
-      </c>
+          <t>Reynaldo Cabigon</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>28 November 2021 08:55:14</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>36.4°C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Reynaldo Cabigon</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>28 November 2021 08:55:14</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>36.4°C</t>
-        </is>
-      </c>
+          <t>Rhaine Canlas</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr"/>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Rhaine Canlas</t>
-        </is>
-      </c>
+          <t>Rhey Betamor</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>28 November 2021 09:08:33</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Rhey C. Betamor</t>
+          <t>Richmond Fernandez</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>28 November 2021 09:08:33</t>
+          <t>28 November 2021 09:26:36</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -3960,143 +5273,183 @@
           <t>36.5°C</t>
         </is>
       </c>
+      <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Richmond Fernandez</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:26:36</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>Rijane Tonio</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr"/>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Rijane Tonio</t>
-        </is>
-      </c>
+          <t>Romana Clet</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>28 November 2021 09:08:09</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>36.3°C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Romana O. Clet</t>
+          <t>Ronald Agustin</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>28 November 2021 09:08:09</t>
+          <t>28 November 2021 09:06:11</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>36.3°C</t>
-        </is>
-      </c>
+          <t>36.2°C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Ronald Agustin</t>
+          <t>Rosemarie Miclat</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>28 November 2021 09:06:11</t>
+          <t>28 November 2021 09:09:45</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>36.2°C</t>
-        </is>
-      </c>
+          <t>36.6°C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Rosemarie Miclat</t>
+          <t>Roxie Nicole Canono</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>28 November 2021 09:09:45</t>
+          <t>28 November 2021 09:13:42</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>36.6°C</t>
-        </is>
-      </c>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Roxie Nicole D. Canono</t>
+          <t>Ruel Gregorio Perez</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>28 November 2021 09:13:42</t>
+          <t>28 November 2021 09:47:13</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>36.4°C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Ruel Gregorio Perez</t>
+          <t>Sabas Gregorio</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>28 November 2021 09:47:13</t>
+          <t>28 November 2021 09:32:55</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -4104,457 +5457,667 @@
           <t>36.4°C</t>
         </is>
       </c>
+      <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Sabas Gregorio</t>
+          <t>Sam Carmela Cadungog</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>28 November 2021 09:32:55</t>
+          <t>28 November 2021 09:21:55</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>36.4°C</t>
-        </is>
-      </c>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Sam Carmela Y. Cadungog</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:21:55</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>Sam Villacora</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr"/>
+      <c r="C216" t="inlineStr"/>
+      <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Sam Villacora</t>
-        </is>
-      </c>
+          <t>Samuel Marzo</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr"/>
+      <c r="C217" t="inlineStr"/>
+      <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Samuel Marzo</t>
-        </is>
-      </c>
+          <t>Saoirse Macapil</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr"/>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Saoirse Macapil</t>
-        </is>
-      </c>
+          <t>Sarah Tonio</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>28 November 2021 09:27:31</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>36.4°C</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Sarah Tonio</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:27:31</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>36.4°C</t>
-        </is>
-      </c>
+          <t>Sebastian Pacturan</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr"/>
+      <c r="C220" t="inlineStr"/>
+      <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Sebastian Pacturan</t>
-        </is>
-      </c>
+          <t>Severiano Gravino</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>28 November 2021 09:05:36</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>36.4°C</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Severiano Gravino</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:05:36</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>36.4°C</t>
-        </is>
-      </c>
+          <t>Shaine Joyce Canono</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr"/>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr"/>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Shaine Joyce D. Canono</t>
-        </is>
-      </c>
+          <t>Shekainah Glory Marzo</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr"/>
+      <c r="C223" t="inlineStr"/>
+      <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Shekainah Glory Marzo</t>
-        </is>
-      </c>
+          <t>Shiela Clarabal</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>28 November 2021 09:26:59</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>36.0°C</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Shiela Clarabal</t>
+          <t>Shiphrah Benosa</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>28 November 2021 09:26:59</t>
+          <t>28 November 2021 09:06:19</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>36.0°C</t>
-        </is>
-      </c>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr"/>
       <c r="E225" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Shiphrah O. Benosa</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:06:19</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>Skye Canlas</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr"/>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Skye Canlas</t>
-        </is>
-      </c>
+          <t>Sofia Ivah Malabago</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>28 November 2021 09:17:41</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Sofia Ivah Malabago</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:17:41</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>Sophia Macapil</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr"/>
+      <c r="C228" t="inlineStr"/>
+      <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Sophia Macapil</t>
-        </is>
-      </c>
+          <t>Sophia Mahusay</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr"/>
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="inlineStr"/>
       <c r="E229" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Sophia Mahusay</t>
-        </is>
-      </c>
+          <t>Terah John Lua</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>28 November 2021 08:59:01</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>36.4°C</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Terah John Lua</t>
+          <t>Tessa Macapil</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>28 November 2021 08:59:01</t>
+          <t>28 November 2021 09:34:14</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>36.4°C</t>
-        </is>
-      </c>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Tessa Macapil</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:34:14</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>Theenes Malabago</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr"/>
+      <c r="C232" t="inlineStr"/>
+      <c r="D232" t="inlineStr"/>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Theenes Malabago</t>
-        </is>
-      </c>
+          <t>Tonnete Gravino</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr"/>
+      <c r="C233" t="inlineStr"/>
+      <c r="D233" t="inlineStr"/>
       <c r="E233" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Tonnete Gravino</t>
-        </is>
-      </c>
+          <t>Treasure Jewel Bandojo</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr"/>
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="inlineStr"/>
       <c r="E234" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Treasure Jewel Bandojo</t>
-        </is>
-      </c>
+          <t>Ueric Malabago</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr"/>
+      <c r="C235" t="inlineStr"/>
+      <c r="D235" t="inlineStr"/>
       <c r="E235" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Ueric Malabago</t>
-        </is>
-      </c>
+          <t>Uriel Seth Murillo</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr"/>
+      <c r="C236" t="inlineStr"/>
+      <c r="D236" t="inlineStr"/>
       <c r="E236" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Uriel Seth Murillo</t>
-        </is>
-      </c>
+          <t>Ursel Laureno</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr"/>
+      <c r="C237" t="inlineStr"/>
+      <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Ursel Laureno</t>
-        </is>
-      </c>
+          <t>Val Murillo</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr"/>
+      <c r="C238" t="inlineStr"/>
+      <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Val Murillo</t>
-        </is>
-      </c>
+          <t>Valeriano Jr. Murillo</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>28 November 2021 09:06:51</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Valeriano Jr. Murillo</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:06:51</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>Vanessa Llanes</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr"/>
+      <c r="C240" t="inlineStr"/>
+      <c r="D240" t="inlineStr"/>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Vanessa Llanes</t>
-        </is>
-      </c>
+          <t>Vergilia Dago-an</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr"/>
+      <c r="C241" t="inlineStr"/>
+      <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Vergilia Dago-an</t>
-        </is>
-      </c>
+          <t>Vic Gregorio</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>28 November 2021 09:45:45</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>36.3°C</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Vic Gregorio</t>
+          <t>Victor Rosales</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>28 November 2021 09:45:45</t>
+          <t>28 November 2021 08:53:34</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -4562,65 +6125,83 @@
           <t>36.3°C</t>
         </is>
       </c>
+      <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Victor Rosales</t>
+          <t>Vince Distrito</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>28 November 2021 08:53:34</t>
+          <t>28 November 2021 09:08:48</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>36.3°C</t>
-        </is>
-      </c>
+          <t>36.5°C</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr"/>
       <c r="E244" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Vince Distrito</t>
+          <t>Vince Gregorio</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>28 November 2021 09:08:48</t>
+          <t>28 November 2021 09:32:32</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>36.5°C</t>
-        </is>
-      </c>
+          <t>36.4°C</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr"/>
       <c r="E245" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Vince Gregorio</t>
+          <t>Vincent Distrito</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>28 November 2021 09:32:32</t>
+          <t>28 November 2021 09:02:35</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -4628,21 +6209,27 @@
           <t>36.4°C</t>
         </is>
       </c>
+      <c r="D246" t="inlineStr"/>
       <c r="E246" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Vincent Distrito</t>
+          <t>Virgie Cepeda</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>28 November 2021 09:02:35</t>
+          <t>28 November 2021 08:57:12</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -4650,142 +6237,175 @@
           <t>36.4°C</t>
         </is>
       </c>
+      <c r="D247" t="inlineStr"/>
       <c r="E247" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Virgie Cepeda</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>28 November 2021 08:57:12</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>36.4°C</t>
-        </is>
-      </c>
+          <t>Von Khalel Bongcawil</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr"/>
+      <c r="C248" t="inlineStr"/>
+      <c r="D248" t="inlineStr"/>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Von Khalel Bongcawil</t>
-        </is>
-      </c>
+          <t>Warren Acain</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>28 November 2021 09:30:48</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>36.1°C</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Warren Acain</t>
+          <t>Zedaiah Eyan Tonio</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>28 November 2021 09:30:48</t>
+          <t>28 November 2021 09:28:19</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>36.1°C</t>
-        </is>
-      </c>
+          <t>36.6°C</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr"/>
       <c r="E250" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Zedaiah Eyan Tonio</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>28 November 2021 09:28:19</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>36.6°C</t>
-        </is>
-      </c>
+          <t>Zeke Clarabal</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr"/>
+      <c r="C251" t="inlineStr"/>
+      <c r="D251" t="inlineStr"/>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Kids</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Zeke Clarabal</t>
-        </is>
-      </c>
+          <t>Zenon Ethan Carballo</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr"/>
+      <c r="C252" t="inlineStr"/>
+      <c r="D252" t="inlineStr"/>
       <c r="E252" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Ladies</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Zenon Ethan Carballo</t>
-        </is>
-      </c>
+          <t>Zephyr Clarabal</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr"/>
+      <c r="C253" t="inlineStr"/>
+      <c r="D253" t="inlineStr"/>
       <c r="E253" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Men</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Zephyr Clarabal</t>
-        </is>
-      </c>
+          <t>Zhavia Sumaylo</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr"/>
+      <c r="C254" t="inlineStr"/>
+      <c r="D254" t="inlineStr"/>
       <c r="E254" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>
       </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>Zhavia Sumaylo</t>
-        </is>
-      </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>Absent</t>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>YP</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>